--- a/parameter.xlsx
+++ b/parameter.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="tag reference" sheetId="9" r:id="rId1"/>
@@ -8349,7 +8349,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G228"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -12066,8 +12066,8 @@
   <sheetPr codeName="工作表1"/>
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -12116,6 +12116,9 @@
     <row r="5" spans="1:4">
       <c r="A5" s="3">
         <v>45335</v>
+      </c>
+      <c r="B5" s="3">
+        <v>45719</v>
       </c>
     </row>
     <row r="6" spans="1:4">

--- a/parameter.xlsx
+++ b/parameter.xlsx
@@ -17,7 +17,7 @@
     <sheet name="tag reference2" sheetId="1" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'tag reference'!$C$1:$C$226</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'tag reference'!$C$1:$C$233</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'tag reference2'!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4507" uniqueCount="1644">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4521" uniqueCount="1660">
   <si>
     <t>W511_MS1/161KV/1510/kwh11</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -7020,6 +7020,70 @@
   </si>
   <si>
     <t>W511_MS1/161KV/1520/mkwh11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TG4 sCOG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W512_FT-149.PV</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TG3 sCOG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W512_FT-148.PV</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TG2 sCOG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W512_FT-126.PV</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TG1 sCOG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W512_FT-125.PV</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>W512_FT-777.PV</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TG4 sNG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TG3 sNG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W512_FT-776.PV</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TG2 sNG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W512_FT-740.PV</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>W512_FT-739.PV</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TG1 sNG</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8457,10 +8521,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="工作表7"/>
-  <dimension ref="A1:G229"/>
+  <dimension ref="A1:G236"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A205" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C232" sqref="C232"/>
+      <selection activeCell="C210" sqref="C210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -11982,164 +12046,220 @@
     </row>
     <row r="211" spans="1:3">
       <c r="A211" s="80" t="s">
-        <v>324</v>
+        <v>1659</v>
       </c>
       <c r="C211" s="82" t="s">
-        <v>1116</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" s="80" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C212" s="82" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" s="80" t="s">
-        <v>326</v>
+        <v>1656</v>
       </c>
       <c r="C213" s="82" t="s">
-        <v>1118</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" s="80" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="C214" s="82" t="s">
-        <v>340</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" s="80" t="s">
-        <v>331</v>
+        <v>1654</v>
       </c>
       <c r="C215" s="82" t="s">
-        <v>341</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" s="80" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="C216" s="82" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" s="80" t="s">
-        <v>333</v>
+        <v>1653</v>
       </c>
       <c r="C217" s="82" t="s">
-        <v>1081</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" s="80" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C218" s="82" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" s="80" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C219" s="82" t="s">
-        <v>1082</v>
+        <v>341</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" s="80" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C220" s="82" t="s">
-        <v>343</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" s="80" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C221" s="82" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" s="80" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C222" s="82" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" s="80" t="s">
-        <v>339</v>
+        <v>1650</v>
       </c>
       <c r="C223" s="82" t="s">
-        <v>345</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" s="80" t="s">
-        <v>346</v>
-      </c>
-      <c r="B224" s="80" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="C224" s="82" t="s">
-        <v>350</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="225" spans="1:4">
       <c r="A225" s="80" t="s">
-        <v>347</v>
-      </c>
-      <c r="B225" s="80" t="s">
-        <v>349</v>
+        <v>1648</v>
       </c>
       <c r="C225" s="82" t="s">
-        <v>351</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="226" spans="1:4">
       <c r="A226" s="80" t="s">
-        <v>1620</v>
+        <v>336</v>
       </c>
       <c r="C226" s="82" t="s">
-        <v>1619</v>
+        <v>343</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" s="80" t="s">
+        <v>1646</v>
+      </c>
+      <c r="C227" s="82" t="s">
+        <v>1647</v>
       </c>
     </row>
     <row r="228" spans="1:4">
       <c r="A228" s="80" t="s">
-        <v>1638</v>
-      </c>
-      <c r="B228" s="80" t="s">
-        <v>1640</v>
-      </c>
-      <c r="C228" s="82"/>
-      <c r="D228" s="1" t="s">
-        <v>1642</v>
+        <v>337</v>
+      </c>
+      <c r="C228" s="82" t="s">
+        <v>1083</v>
       </c>
     </row>
     <row r="229" spans="1:4">
       <c r="A229" s="80" t="s">
+        <v>1644</v>
+      </c>
+      <c r="C229" s="82" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230" s="80" t="s">
+        <v>339</v>
+      </c>
+      <c r="C230" s="82" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231" s="80" t="s">
+        <v>346</v>
+      </c>
+      <c r="B231" s="80" t="s">
+        <v>348</v>
+      </c>
+      <c r="C231" s="82" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232" s="80" t="s">
+        <v>347</v>
+      </c>
+      <c r="B232" s="80" t="s">
+        <v>349</v>
+      </c>
+      <c r="C232" s="82" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233" s="80" t="s">
+        <v>1620</v>
+      </c>
+      <c r="C233" s="82" t="s">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235" s="80" t="s">
+        <v>1638</v>
+      </c>
+      <c r="B235" s="80" t="s">
+        <v>1640</v>
+      </c>
+      <c r="C235" s="82"/>
+      <c r="D235" s="1" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236" s="80" t="s">
         <v>1639</v>
       </c>
-      <c r="B229" s="80" t="s">
+      <c r="B236" s="80" t="s">
         <v>1641</v>
       </c>
-      <c r="C229" s="82"/>
-      <c r="D229" s="1" t="s">
+      <c r="C236" s="82"/>
+      <c r="D236" s="1" t="s">
         <v>1643</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C226"/>
+  <autoFilter ref="C1:C233"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -12331,10 +12451,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="工作表3"/>
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -12345,7 +12465,7 @@
     <col min="7" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -12353,112 +12473,122 @@
         <v>377</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>364</v>
       </c>
       <c r="B2" s="3">
+        <v>45870</v>
+      </c>
+      <c r="C2" s="3">
         <v>45748</v>
       </c>
-      <c r="C2" s="3">
+      <c r="D2" s="3">
         <v>45717</v>
       </c>
-      <c r="D2" s="3">
+      <c r="E2" s="3">
         <v>45627</v>
       </c>
-      <c r="E2" s="3">
+      <c r="F2" s="3">
         <v>45597</v>
       </c>
-      <c r="F2" s="3">
+      <c r="G2" s="3">
         <v>45536</v>
       </c>
-      <c r="G2" s="3">
+      <c r="H2" s="3">
         <v>45474</v>
       </c>
-      <c r="H2" s="3">
+      <c r="I2" s="3">
         <v>45444</v>
       </c>
-      <c r="I2" s="3">
+      <c r="J2" s="3">
         <v>44866</v>
       </c>
-      <c r="J2" s="3">
+      <c r="K2" s="3">
         <v>44562</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>372</v>
       </c>
       <c r="B3">
+        <v>15.867900000000001</v>
+      </c>
+      <c r="C3">
         <v>16.227900000000002</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>15.767899999999999</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>14.367900000000001</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>13.9579</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>13.5579</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>12.357900000000001</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>11.357900000000001</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>9.36</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>9.3424999999999994</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>352</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:C4" si="0">B3*1.056</f>
-        <v>17.136662400000002</v>
+        <f t="shared" ref="B4:D4" si="0">B3*1.056</f>
+        <v>16.756502400000002</v>
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
+        <v>17.136662400000002</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
         <v>16.6509024</v>
       </c>
-      <c r="D4">
-        <f t="shared" ref="D4:J4" si="1">D3*1.056</f>
+      <c r="E4">
+        <f t="shared" ref="E4:K4" si="1">E3*1.056</f>
         <v>15.172502400000001</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <f t="shared" si="1"/>
         <v>14.739542400000001</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <f t="shared" si="1"/>
         <v>14.317142400000002</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <f t="shared" si="1"/>
         <v>13.049942400000001</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <f t="shared" si="1"/>
         <v>11.993942400000002</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <f t="shared" si="1"/>
         <v>9.8841599999999996</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <f t="shared" si="1"/>
         <v>9.8656799999999993</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>366</v>
       </c>
@@ -12478,7 +12608,7 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>365</v>
       </c>
@@ -12498,7 +12628,7 @@
         <v>9381</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>370</v>
       </c>
@@ -12518,7 +12648,7 @@
         <v>4267</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>371</v>
       </c>
@@ -12538,7 +12668,7 @@
         <v>1901</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>369</v>
       </c>
@@ -12558,7 +12688,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
         <v>357</v>
       </c>
@@ -12575,12 +12705,12 @@
         <v>2683</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
         <v>367</v>
       </c>
@@ -12601,13 +12731,13 @@
         <v>3.508386134923593</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
         <v>361</v>
       </c>
       <c r="B15">
         <f>B4/(B7/B11)</f>
-        <v>4.9978858269479129</v>
+        <v>4.8870126457167462</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -12973,7 +13103,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/parameter.xlsx
+++ b/parameter.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="tag reference" sheetId="9" r:id="rId1"/>
@@ -8523,7 +8523,7 @@
   <sheetPr codeName="工作表7"/>
   <dimension ref="A1:G236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A205" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A205" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C210" sqref="C210"/>
     </sheetView>
   </sheetViews>
@@ -12269,10 +12269,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="工作表1"/>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -12424,22 +12424,85 @@
       <c r="E19" s="95"/>
     </row>
     <row r="20" spans="1:5">
+      <c r="A20" s="3">
+        <v>45778</v>
+      </c>
       <c r="E20" s="95"/>
     </row>
     <row r="21" spans="1:5">
+      <c r="A21" s="3">
+        <v>45936</v>
+      </c>
       <c r="E21" s="95"/>
     </row>
     <row r="22" spans="1:5">
+      <c r="A22" s="3">
+        <v>45940</v>
+      </c>
       <c r="E22" s="95"/>
     </row>
     <row r="23" spans="1:5">
+      <c r="A23" s="3">
+        <v>46016</v>
+      </c>
       <c r="E23" s="95"/>
     </row>
     <row r="24" spans="1:5">
+      <c r="A24" s="3">
+        <v>46023</v>
+      </c>
       <c r="E24" s="95"/>
     </row>
     <row r="25" spans="1:5">
+      <c r="A25" s="3">
+        <v>46069</v>
+      </c>
       <c r="E25" s="95"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="3">
+        <v>46070</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="3">
+        <v>46071</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="3">
+        <v>46072</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="3">
+        <v>46073</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="3">
+        <v>46143</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="3">
+        <v>46192</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="3">
+        <v>46290</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="3">
+        <v>46293</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="3">
+        <v>46381</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
